--- a/ErrorSolution.xlsx
+++ b/ErrorSolution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kduck\OneDrive\바탕 화면\Dx12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93b8cf70261917fc/바탕 화면/Dx12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3492A7B-C779-43AE-A478-E93FA17D9E4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{F3492A7B-C779-43AE-A478-E93FA17D9E4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{202B54AB-C65A-4DF7-9A36-55E930309744}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{814D8898-1336-43D0-933C-AD0290055E40}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>오류 코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,58 @@
   </si>
   <si>
     <t>Shader::BuildPipelineState의 psoDesc.DSVFormat = DXGI_FORMAT_D24_UNORM_S8_UINT;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3D12 ERROR: ID3D12CommandList::OMSetRenderTargets: Specified CPU descriptor handle ptr=0x000001C7895742BF does not refer to a location in a descriptor heap. pRenderTargetDescriptors[0] is the issue. [ EXECUTION ERROR #646: INVALID_DESCRIPTOR_HANDLE]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3D12 ERROR: ID3D12Device::CreateRenderTargetView: Specified CPU descriptor handle ptr=0x000001A315F6003F does not refer to a location in a descriptor heap.  [ EXECUTION ERROR #646: INVALID_DESCRIPTOR_HANDLE]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3D12 ERROR: ID3D12CommandQueue::ExecuteCommandLists: Using Draw on Command List (0x000002077ECF5350:'Unnamed ID3D12GraphicsCommandList Object'): Resource state (0x0: D3D12_RESOURCE_STATE_[COMMON|PRESENT]) of resource (0x000002077F0CCF60:'Unnamed ID3D12Resource Object') (subresource: 0) is invalid for use as a render target.  Expected State Bits (all): 0x4: D3D12_RESOURCE_STATE_RENDER_TARGET, Actual State: 0x0: D3D12_RESOURCE_STATE_[COMMON|PRESENT], Missing State: 0x4: D3D12_RESOURCE_STATE_RENDER_TARGET. [ EXECUTION ERROR #538: INVALID_SUBRESOURCE_STATE]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core::CreateDescriptorHeap에서 rtvDesc.NumDescriptors의 개수를 맞게 설정했나 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3D12 ERROR: ID3D12CommandQueue::ExecuteCommandLists: Using ResourceBarrier on Command List (0x0000015B9F67A570:'Unnamed ID3D12GraphicsCommandList Object'): Before state (0x0: D3D12_RESOURCE_STATE_[COMMON|PRESENT]) of resource (0x0000015B9F97CB40:'Unnamed ID3D12Resource Object') (subresource: 0) specified by transition barrier does not match with the state (0x4: D3D12_RESOURCE_STATE_RENDER_TARGET) specified in the previous call to ResourceBarrier [ RESOURCE_MANIPULATION ERROR #527: RESOURCE_BARRIER_BEFORE_AFTER_MISMATCH]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceState를 잘못 정해준 것. ResourceBarrier를 통해 리소스 상태를 바꿔주자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3D12 WARNING: ID3D12CommandList::ClearRenderTargetView: The application did not pass any clear value to resource creation. The clear operation is typically slower as a result; but will still clear to the desired value. [ EXECUTION WARNING #820: CLEARRENDERTARGETVIEW_MISMATCHINGCLEARVALUE]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3D12 ERROR: ID3D12CommandQueue::ExecuteCommandLists: Using ClearRenderTargetView on Command List (0x000002767F535890:'Unnamed ID3D12GraphicsCommandList Object'): Resource state (0x800: D3D12_RESOURCE_STATE_COPY_SOURCE) of resource (0x000002767F8740F0:'Unnamed ID3D12Resource Object') (subresource: 0) is invalid for use as a render target.  Expected State Bits (all): 0x4: D3D12_RESOURCE_STATE_RENDER_TARGET, Actual State: 0x800: D3D12_RESOURCE_STATE_COPY_SOURCE, Missing State: 0x4: D3D12_RESOURCE_STATE_RENDER_TARGET. [ EXECUTION ERROR #538: INVALID_SUBRESOURCE_STATE]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>렌더타겟을 클리어 할때는 스테이트를 렌더타겟으로 바꾸자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>렌더타겟을 생성할 때 클리어 벨류를 만들어 넣어주지 않으면 조금 느리게 초기화된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3D12 ERROR: ID3D12CommandList::DrawIndexedInstanced: The render target format in slot 1 does not match that specified by the current pipeline state. (pipeline state = Unrecognized, RTV ID3D12Resource* = 0x0000029643BC8010:'Unnamed ID3D12Resource Object') [ EXECUTION ERROR #613: RENDER_TARGET_FORMAT_MISMATCH_PIPELINE_STATE]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3D12 WARNING: ID3D12Device::CreateGraphicsPipelineState: The Pixel Shader expects a Render Target View bound to slot 1, but the PSO indicates that none will be bound. This is OK, as writes of an unbound Render Target View are discarded. It is also possible the developer knows the data will not be used anyway. This is only a problem if the developer actually intended to bind a Render Target View here. [ STATE_CREATION WARNING #679: CREATEGRAPHICSPIPELINESTATE_RENDERTARGETVIEW_NOT_SET]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shader::BuildPipelineState에서 psoDesc.RTVFormats를 배열로 numRenderTargets의 수 만큼 맞춰준다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491BA09D-4026-4342-A1C9-7A84BE33E748}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -509,6 +561,66 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ErrorSolution.xlsx
+++ b/ErrorSolution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93b8cf70261917fc/바탕 화면/Dx12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{F3492A7B-C779-43AE-A478-E93FA17D9E4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{202B54AB-C65A-4DF7-9A36-55E930309744}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{F3492A7B-C779-43AE-A478-E93FA17D9E4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A00E6C96-F22C-4B83-81B9-906F5A77A266}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{814D8898-1336-43D0-933C-AD0290055E40}"/>
+    <workbookView xWindow="-25500" yWindow="2115" windowWidth="21600" windowHeight="12165" xr2:uid="{814D8898-1336-43D0-933C-AD0290055E40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>오류 코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,14 @@
   </si>
   <si>
     <t xml:space="preserve"> Shader::BuildPipelineState에서 psoDesc.RTVFormats를 배열로 numRenderTargets의 수 만큼 맞춰준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3D12 ERROR: ID3D12CommandList::SetGraphicsRootShaderResourceView: The currently set root signature declares parameter [2] with type CBV, so it is invalid to set a root SRV here. [ EXECUTION ERROR #711: SET_ROOT_SHADER_RESOURCE_VIEW_INVALID]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상수버퍼였는데, 쉐이더 리소스 뷰 셋을 해버림</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491BA09D-4026-4342-A1C9-7A84BE33E748}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -621,6 +629,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="14" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ErrorSolution.xlsx
+++ b/ErrorSolution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93b8cf70261917fc/바탕 화면/Dx12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{F3492A7B-C779-43AE-A478-E93FA17D9E4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A00E6C96-F22C-4B83-81B9-906F5A77A266}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{F3492A7B-C779-43AE-A478-E93FA17D9E4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E713583C-C2F4-43E8-B54E-57E6D6135956}"/>
   <bookViews>
-    <workbookView xWindow="-25500" yWindow="2115" windowWidth="21600" windowHeight="12165" xr2:uid="{814D8898-1336-43D0-933C-AD0290055E40}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{814D8898-1336-43D0-933C-AD0290055E40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>오류 코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,14 @@
   </si>
   <si>
     <t>상수버퍼였는데, 쉐이더 리소스 뷰 셋을 해버림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Textures created with certain Formats must align the resource dimensions properly. D3D12_RESOURCE_DESC::Format is BC3_UNORM. D3D12_RESOURCE_DESC::Width is 512, and must be a multiple of 4. D3D12_RESOURCE_DESC::Height is 170, and must be a multiple of 4. [ STATE_CREATION ERROR #597: CREATERESOURCE_INVALIDDIMENSIONS]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밉맵추출을 위해 dds는 4의 배수 텍스쳐야 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,9 +533,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491BA09D-4026-4342-A1C9-7A84BE33E748}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -637,6 +645,14 @@
         <v>22</v>
       </c>
     </row>
+    <row r="15" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
